--- a/excels/test.xlsx
+++ b/excels/test.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="test2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>物品</t>
   </si>
@@ -46,13 +46,16 @@
     <t>基类</t>
   </si>
   <si>
+    <t>测试题</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>#Loc{}_title</t>
-  </si>
-  <si>
-    <t>#Loc{}_desc</t>
+    <t>#schinese#{}_title</t>
+  </si>
+  <si>
+    <t>#english#{}_desc</t>
   </si>
   <si>
     <t>#Loc{}_rune</t>
@@ -61,13 +64,16 @@
     <t>BaseClass</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>item_shj</t>
   </si>
   <si>
-    <t>山海经</t>
-  </si>
-  <si>
-    <t>全属性加成+{0}%</t>
+    <t>xin翻译1</t>
+  </si>
+  <si>
+    <t>英文1</t>
   </si>
   <si>
     <t>item_lua</t>
@@ -76,7 +82,73 @@
     <t>item_shj2</t>
   </si>
   <si>
-    <t>全属性加成+{1}%</t>
+    <t>xin翻译2</t>
+  </si>
+  <si>
+    <t>英文2</t>
+  </si>
+  <si>
+    <t>item_shj3</t>
+  </si>
+  <si>
+    <t>xin翻译3</t>
+  </si>
+  <si>
+    <t>英文31</t>
+  </si>
+  <si>
+    <t>#schinese#{}</t>
+  </si>
+  <si>
+    <t>心烦意3</t>
+  </si>
+  <si>
+    <t>英文32</t>
+  </si>
+  <si>
+    <t>爱到疯</t>
+  </si>
+  <si>
+    <t>心烦意4</t>
+  </si>
+  <si>
+    <t>英文4</t>
+  </si>
+  <si>
+    <t>456水电费</t>
+  </si>
+  <si>
+    <t>itemsd</t>
+  </si>
+  <si>
+    <t>心烦意5</t>
+  </si>
+  <si>
+    <t>英文56</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>toolcommon</t>
+  </si>
+  <si>
+    <t>通用工具</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>new2阿飞阿发</t>
+  </si>
+  <si>
+    <t>new123</t>
   </si>
 </sst>
 </file>
@@ -1029,13 +1101,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
@@ -1044,7 +1116,7 @@
     <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,52 +1132,82 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="30" spans="1:5">
+    <row r="2" ht="30" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>123</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -1118,14 +1220,138 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excels/test.xlsx
+++ b/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>物品</t>
   </si>
@@ -67,6 +67,30 @@
     <t>test</t>
   </si>
   <si>
+    <t>abilityvalue{</t>
+  </si>
+  <si>
+    <t>cooldown{</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>manacost</t>
+  </si>
+  <si>
     <t>item_shj</t>
   </si>
   <si>
@@ -79,6 +103,9 @@
     <t>item_lua</t>
   </si>
   <si>
+    <t>sdafsdf</t>
+  </si>
+  <si>
     <t>item_shj2</t>
   </si>
   <si>
@@ -95,6 +122,27 @@
   </si>
   <si>
     <t>英文31</t>
+  </si>
+  <si>
+    <t>sadf</t>
+  </si>
+  <si>
+    <t>gag asf</t>
+  </si>
+  <si>
+    <t>item_shj4</t>
+  </si>
+  <si>
+    <t>本地化测试1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>c3</t>
   </si>
   <si>
     <t>#schinese#{}</t>
@@ -1101,19 +1149,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="9" max="13" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:6">
@@ -1136,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:6">
+    <row r="2" ht="30" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1155,59 +1206,149 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="16.5" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>123</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
+      </c>
+      <c r="N3">
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>456</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>456</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>12124</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>456</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+      <c r="H6">
+        <v>456</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>789</v>
+      </c>
+      <c r="N6">
+        <v>9101</v>
+      </c>
+      <c r="O6">
+        <v>112123</v>
       </c>
     </row>
   </sheetData>
@@ -1222,8 +1363,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1256,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1273,82 +1414,82 @@
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
